--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="198">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>Progress could be tracked through JIRA.</t>
+  </si>
+  <si>
+    <t>Final prototype</t>
   </si>
 </sst>
 </file>
@@ -1031,15 +1034,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1054,6 +1048,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1360,15 +1363,15 @@
   <dimension ref="A2:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="76.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="55" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="76.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="55" style="24" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1631,7 +1634,9 @@
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2061,12 +2066,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -2103,7 +2108,7 @@
       <c r="B65" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2125,12 +2130,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -2217,12 +2222,12 @@
       <c r="D75" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -2279,18 +2284,18 @@
       <c r="B82" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
     </row>
     <row r="85" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -2299,7 +2304,7 @@
       <c r="B85" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="21" t="s">
         <v>158</v>
       </c>
       <c r="D85" s="2"/>
@@ -2311,7 +2316,7 @@
       <c r="B86" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="21" t="s">
         <v>160</v>
       </c>
       <c r="D86" s="2"/>
@@ -2323,7 +2328,7 @@
       <c r="B87" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="21" t="s">
         <v>162</v>
       </c>
       <c r="D87" s="2"/>
@@ -2335,7 +2340,7 @@
       <c r="B88" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="21" t="s">
         <v>164</v>
       </c>
       <c r="D88" s="2"/>
@@ -2363,12 +2368,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -2467,12 +2472,12 @@
       <c r="D100" s="2"/>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
@@ -2499,7 +2504,7 @@
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="6" t="s">
         <v>185</v>
       </c>
@@ -2509,7 +2514,7 @@
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="6" t="s">
         <v>187</v>
       </c>
@@ -2519,7 +2524,7 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="6" t="s">
         <v>188</v>
       </c>
@@ -2529,7 +2534,7 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="6" t="s">
         <v>189</v>
       </c>
@@ -2539,7 +2544,7 @@
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="6" t="s">
         <v>190</v>
       </c>
@@ -2578,12 +2583,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A102:D102"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A102:D102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -2601,9 +2606,10 @@
     <hyperlink ref="C66" r:id="rId13"/>
     <hyperlink ref="C63" r:id="rId14"/>
     <hyperlink ref="C64" r:id="rId15"/>
+    <hyperlink ref="C65" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Playbook Checklist" sheetId="1" r:id="rId1"/>
@@ -19,54 +19,6 @@
     <author>Susan Lerman</author>
   </authors>
   <commentList>
-    <comment ref="C43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Susan Lerman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I struggle with "typically"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C45" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Susan Lerman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-based on customer requirements</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C74" authorId="0">
       <text>
         <r>
@@ -96,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -155,9 +107,6 @@
     <t>Activity scenario planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Users stories were used and priortitized </t>
-  </si>
-  <si>
     <t>As the digital service is being built, regularly test it with potential users to ensure it meets people’s needs</t>
   </si>
   <si>
@@ -173,9 +122,6 @@
     <t>Identify pain points in the current way users interact with the service, and prioritize these according to user needs</t>
   </si>
   <si>
-    <t>We accomplished this through user stories as well as results from usabilty testing</t>
-  </si>
-  <si>
     <t>Design the digital parts of the service so that they are integrated with the offline touch points people use to interact with the service</t>
   </si>
   <si>
@@ -197,9 +143,6 @@
     <t>Use a simple and flexible design style guide for the service. Use the U.S. Web Design Standards as a default</t>
   </si>
   <si>
-    <t>Style guide</t>
-  </si>
-  <si>
     <t>Our style guide was built using USWDS standards</t>
   </si>
   <si>
@@ -209,18 +152,12 @@
     <t>Give users clear information about where they are in each step of the process</t>
   </si>
   <si>
-    <t>Breadcrumb navigation ???</t>
-  </si>
-  <si>
     <t>Follow accessibility best practices to ensure all people can use the service</t>
   </si>
   <si>
     <t>508 Testing</t>
   </si>
   <si>
-    <t>We conducted testing for Section 508 of the Americans with Disabilities Act and WCAG 2.0</t>
-  </si>
-  <si>
     <t>N/A for POC</t>
   </si>
   <si>
@@ -239,9 +176,6 @@
     <t>Use language and design consistently throughout the service, including online and offline touch points</t>
   </si>
   <si>
-    <t>Our style guide was used to esure that our design remains consistent throughout.</t>
-  </si>
-  <si>
     <t>Play 4 - Build the service using agile and iterative practices</t>
   </si>
   <si>
@@ -257,9 +191,6 @@
     <t>Run Usability testing frequently to see how well the service works and identify improvements that should be made</t>
   </si>
   <si>
-    <t>Usability testing, user stories with recommendations</t>
-  </si>
-  <si>
     <t>We ran usability test throughout our process - incorporating feedback through users stories introduced in sprint.</t>
   </si>
   <si>
@@ -339,9 +270,6 @@
   </si>
   <si>
     <t>Roadmap</t>
-  </si>
-  <si>
-    <t>Our roadmap provided a highlevel structure for our major milestones</t>
   </si>
   <si>
     <t>Contract is structured to hold vendors accountable to deliverables</t>
@@ -378,9 +306,6 @@
     <t>Jira backlog (Work structured in sprints with check-ins, with backlog grooming and resequencing)</t>
   </si>
   <si>
-    <t>Based on our JIRA backlog we were able to adjust the work baed on the responses of our PM as well as users</t>
-  </si>
-  <si>
     <t>Contract ensures open source solutions are evaluated when technology choices are made</t>
   </si>
   <si>
@@ -430,12 +355,291 @@
     <t>Contract specifies a warranty period where defects uncovered by the public are addressed by the vendor at no additional cost to the government</t>
   </si>
   <si>
+    <t>Contract includes a transition of services period and transition-out plan</t>
+  </si>
+  <si>
+    <t>Play 6 - Assign one leader and hold that person accountable</t>
+  </si>
+  <si>
+    <t>A product owner has been identified</t>
+  </si>
+  <si>
+    <t>RACI</t>
+  </si>
+  <si>
+    <t>We identified one person to serve at the PM for the prototype.  The PM had ultimate decision making authority</t>
+  </si>
+  <si>
+    <t>All stakeholders agree that the product owner has the authority to assign tasks and make decisions about features and technical implementation details</t>
+  </si>
+  <si>
+    <t>The product owner has a product management background with technical experience to assess alternatives and weigh tradeoffs</t>
+  </si>
+  <si>
+    <t>The PM served the role of PO on this effort given the labor categories outlined in Attachment B: PQVP DS-AD Labor Category Descriptions</t>
+  </si>
+  <si>
+    <t>The product owner has a work plan that includes budget estimates and identifies funding sources</t>
+  </si>
+  <si>
+    <t>The roadmap served as the workplan for the PM.  Budgeting was handled by the PM</t>
+  </si>
+  <si>
+    <t>The product owner has a strong relationship with the contracting officer</t>
+  </si>
+  <si>
+    <t>Play 7 - Bring in experienced teams</t>
+  </si>
+  <si>
+    <t>Member(s) of the team have experience building popular, high-traffic digital services</t>
+  </si>
+  <si>
+    <t>Member(s) of the team have experience designing mobile and web applications</t>
+  </si>
+  <si>
+    <t>Team members had experience designing mobile and web applications</t>
+  </si>
+  <si>
+    <t>Member(s) of the team have experience using automated testing frameworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team members had experience with automated testing </t>
+  </si>
+  <si>
+    <t>Member(s) of the team have experience with modern development and operations (DevOps) techniques like continuous integration and continuous deployment</t>
+  </si>
+  <si>
+    <t>Member(s) of the team have experience securing digital services</t>
+  </si>
+  <si>
+    <t>Play 8 - Choose a modern technology stack</t>
+  </si>
+  <si>
+    <t>Choose software frameworks that are commonly used by private-sector companies creating similar services</t>
+  </si>
+  <si>
+    <t>Technology list</t>
+  </si>
+  <si>
+    <t>Whenever possible, ensure that software can be deployed on a variety of commodity hardware types</t>
+  </si>
+  <si>
+    <t>We tested on a variety of hardware types</t>
+  </si>
+  <si>
+    <t>Ensure that each project has clear, understandable instructions for setting up a local development environment, and that team members can be quickly added or removed from projects</t>
+  </si>
+  <si>
+    <t>Developer onboarding checklist</t>
+  </si>
+  <si>
+    <t>We have a checklist and instructions for new developers.  These instructions allowed us to have the ability to add/remove developers if needed</t>
+  </si>
+  <si>
+    <t>Consider open source software solutions at every layer of the stack</t>
+  </si>
+  <si>
+    <t>We used commonly used open source technologies</t>
+  </si>
+  <si>
+    <t>Play 9 - Deploy in a flexible hosting environment</t>
+  </si>
+  <si>
+    <t>Resources are provisioned on demand</t>
+  </si>
+  <si>
+    <t>Azure dashboard report and configuration screen</t>
+  </si>
+  <si>
+    <t>Resources scale based on real-time user demand</t>
+  </si>
+  <si>
+    <t>Resources are provisioned through an API</t>
+  </si>
+  <si>
+    <t>Database as a service</t>
+  </si>
+  <si>
+    <t>Resources are available in multiple regions</t>
+  </si>
+  <si>
+    <t>We only pay for resources we use</t>
+  </si>
+  <si>
+    <t>Azure pricing model</t>
+  </si>
+  <si>
+    <t>Static assets are served through a content delivery network</t>
+  </si>
+  <si>
+    <t>??? - Ask Brian</t>
+  </si>
+  <si>
+    <t>Application is hosted on commodity hardware</t>
+  </si>
+  <si>
+    <t>Azure dashboard report and configuration screen - host neutral</t>
+  </si>
+  <si>
+    <t>Play 10 - Automate testing and deployments</t>
+  </si>
+  <si>
+    <t>Create automated tests that verify all user-facing functionality</t>
+  </si>
+  <si>
+    <t>Create unit and integration tests to verify modules and components</t>
+  </si>
+  <si>
+    <t>Run tests automatically as part of the build process</t>
+  </si>
+  <si>
+    <t>Perform deployments automatically with deployment scripts, continuous delivery services, or similar techniques</t>
+  </si>
+  <si>
+    <t>Conduct load and performance tests at regular intervals, including before public launch</t>
+  </si>
+  <si>
+    <t>Backlog story for load testing</t>
+  </si>
+  <si>
+    <t>Play 11 - Manage security and privacy through reusable processes</t>
+  </si>
+  <si>
+    <t>Contact the appropriate privacy or legal officer of the department or agency to determine whether a System of Records Notice (SORN), Privacy Impact Assessment, or other review should be conducted</t>
+  </si>
+  <si>
+    <t>TBD -- may create a Privacy Impact Assessment, based on Chuck's availability (Discuss how we typically comply: This is typical practice on CGI's engagements. We identified information to be collected in concert with the CGI Security Engineer, who acted as Privacy Officer for this proof of concept.)</t>
+  </si>
+  <si>
+    <t>Determine, in consultation with a records officer, what data is collected and why, how it is used or shared, how it is stored and secured, and how long it is kept</t>
+  </si>
+  <si>
+    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as Records Officer.)</t>
+  </si>
+  <si>
+    <t>Determine, in consultation with a privacy specialist, whether and how users are notified about how personal information is collected and used, including whether a privacy policy is needed and where it should appear, and how users will be notified in the event of a security breach</t>
+  </si>
+  <si>
+    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as privacy specialist.)</t>
+  </si>
+  <si>
+    <t>Consider whether the user should be able to access, delete, or remove their information from the service</t>
+  </si>
+  <si>
+    <t>TBD -- may create a Privacy Policy (We considered these options in the creation of privacy policy.)</t>
+  </si>
+  <si>
+    <t>“Pre-certify” the hosting infrastructure used for the project using FedRAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGI makes hosting recommendations based on project requirements and client security standards, and assesses the infrastructure against those standards prior to deploying the application. If FedRAMP compliance is required, we would recommend CalCloud, the Azure Government Cloud, or another comparable solution that has been FedRAMP certified or independently assessed as FedRAMP compliant. </t>
+  </si>
+  <si>
+    <t>Use deployment scripts to ensure configuration of production environment remains consistent and controllable</t>
+  </si>
+  <si>
+    <t>Play 12 - Use data to drive decisions</t>
+  </si>
+  <si>
+    <t>Monitor system-level resource utilization in real time</t>
+  </si>
+  <si>
+    <t>Monitor system performance in real-time (e.g. response time, latency, throughput, and error rates)</t>
+  </si>
+  <si>
+    <t>Ensure monitoring can measure median, 95th percentile, and 98th percentile performance</t>
+  </si>
+  <si>
+    <t>Create automated alerts based on this monitoring</t>
+  </si>
+  <si>
+    <t>Track concurrent users in real-time, and monitor user behaviors in the aggregate to determine how well the service meets user needs</t>
+  </si>
+  <si>
+    <t>Create a backlog story</t>
+  </si>
+  <si>
+    <t>Publish metrics internally</t>
+  </si>
+  <si>
+    <t>Publish metrics externally</t>
+  </si>
+  <si>
+    <t>Use an experimentation tool that supports multivariate testing in production</t>
+  </si>
+  <si>
+    <t>Play 13 - Default to open</t>
+  </si>
+  <si>
+    <t>Offer users a mechanism to report bugs and issues, and be responsive to these reports</t>
+  </si>
+  <si>
+    <t>Create backlog story - Feedback mechanism to report bugs/issues</t>
+  </si>
+  <si>
+    <t>Provide datasets to the public, in their entirety, through bulk downloads and APIs (application programming interfaces)</t>
+  </si>
+  <si>
+    <t>Comment in the 2000 word that our architecture supports</t>
+  </si>
+  <si>
+    <t>Ensure that data from the service is explicitly in the public domain, and that rights are waived globally via an international public domain dedication, such as the “Creative Commons Zero” waiver</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Catalog data in the agency’s enterprise data inventory and add any public datasets to the agency’s public data listing</t>
+  </si>
+  <si>
+    <t>Ensure that we maintain the rights to all data developed by third parties in a manner that is releasable and reusable at no cost to the public</t>
+  </si>
+  <si>
+    <t>Ensure that we maintain contractual rights to all custom software developed by third parties in a manner that is publishable and reusable at no cost</t>
+  </si>
+  <si>
+    <t>When appropriate, create an API for third parties and internal users to interact with the service directly</t>
+  </si>
+  <si>
+    <t>When appropriate, publish source code of projects or components online</t>
+  </si>
+  <si>
+    <t>All code is published in GitHub</t>
+  </si>
+  <si>
+    <t>When appropriate, share your development process and progress publicly</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Progress could be tracked through JIRA.</t>
+  </si>
+  <si>
+    <t>Final prototype</t>
+  </si>
+  <si>
+    <t>We used the US Web Design Standards</t>
+  </si>
+  <si>
+    <t>US Web Design Standards</t>
+  </si>
+  <si>
+    <t>New Relic and Azure Dashboards</t>
+  </si>
+  <si>
+    <t>Deployment Log</t>
+  </si>
+  <si>
+    <t>Our prototype did not incorporate a process for which a user would need guidance as to where the users is.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -446,7 +650,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -455,15 +659,12 @@
     </r>
   </si>
   <si>
-    <t>Contract includes a transition of services period and transition-out plan</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -474,7 +675,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -483,308 +684,50 @@
     </r>
   </si>
   <si>
-    <t>Play 6 - Assign one leader and hold that person accountable</t>
-  </si>
-  <si>
-    <t>A product owner has been identified</t>
-  </si>
-  <si>
-    <t>RACI</t>
-  </si>
-  <si>
-    <t>We identified one person to serve at the PM for the prototype.  The PM had ultimate decision making authority</t>
-  </si>
-  <si>
-    <t>All stakeholders agree that the product owner has the authority to assign tasks and make decisions about features and technical implementation details</t>
-  </si>
-  <si>
-    <t>Our RACI provide a view of who had the responsibility and decsion making authority.</t>
-  </si>
-  <si>
-    <t>The product owner has a product management background with technical experience to assess alternatives and weigh tradeoffs</t>
-  </si>
-  <si>
-    <t>The PM served the role of PO on this effort given the labor categories outlined in Attachment B: PQVP DS-AD Labor Category Descriptions</t>
-  </si>
-  <si>
-    <t>The product owner has a work plan that includes budget estimates and identifies funding sources</t>
-  </si>
-  <si>
-    <t>Roadmap and resources/ blurb and spreadsheet</t>
-  </si>
-  <si>
-    <t>The roadmap served as the workplan for the PM.  Budgeting was handled by the PM</t>
-  </si>
-  <si>
-    <t>The product owner has a strong relationship with the contracting officer</t>
-  </si>
-  <si>
-    <t>Play 7 - Bring in experienced teams</t>
-  </si>
-  <si>
-    <t>Member(s) of the team have experience building popular, high-traffic digital services</t>
-  </si>
-  <si>
-    <t>Team members had experience with high-traffice digital services</t>
-  </si>
-  <si>
-    <t>Member(s) of the team have experience designing mobile and web applications</t>
-  </si>
-  <si>
-    <t>Team members had experience designing mobile and web applications</t>
-  </si>
-  <si>
-    <t>Member(s) of the team have experience using automated testing frameworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team members had experience with automated testing </t>
-  </si>
-  <si>
-    <t>Member(s) of the team have experience with modern development and operations (DevOps) techniques like continuous integration and continuous deployment</t>
-  </si>
-  <si>
-    <t>Team members had experience with continous integration and deployment techniques</t>
-  </si>
-  <si>
-    <t>Member(s) of the team have experience securing digital services</t>
-  </si>
-  <si>
-    <t>Team members had experience securing ditial services</t>
-  </si>
-  <si>
-    <t>Play 8 - Choose a modern technology stack</t>
-  </si>
-  <si>
-    <t>Choose software frameworks that are commonly used by private-sector companies creating similar services</t>
-  </si>
-  <si>
-    <t>Technology list</t>
-  </si>
-  <si>
-    <t>We used commonly used softwares</t>
-  </si>
-  <si>
-    <t>Whenever possible, ensure that software can be deployed on a variety of commodity hardware types</t>
-  </si>
-  <si>
-    <t>We tested on a variety of hardware types</t>
-  </si>
-  <si>
-    <t>Ensure that each project has clear, understandable instructions for setting up a local development environment, and that team members can be quickly added or removed from projects</t>
-  </si>
-  <si>
-    <t>Developer onboarding checklist</t>
-  </si>
-  <si>
-    <t>We have a checklist and instructions for new developers.  These instructions allowed us to have the ability to add/remove developers if needed</t>
-  </si>
-  <si>
-    <t>Consider open source software solutions at every layer of the stack</t>
-  </si>
-  <si>
-    <t>We used commonly used open source technologies</t>
-  </si>
-  <si>
-    <t>Play 9 - Deploy in a flexible hosting environment</t>
-  </si>
-  <si>
-    <t>Resources are provisioned on demand</t>
-  </si>
-  <si>
-    <t>Azure dashboard report and configuration screen</t>
-  </si>
-  <si>
-    <t>Resources scale based on real-time user demand</t>
-  </si>
-  <si>
-    <t>Resources are provisioned through an API</t>
-  </si>
-  <si>
-    <t>Database as a service</t>
-  </si>
-  <si>
-    <t>Resources are available in multiple regions</t>
-  </si>
-  <si>
-    <t>We only pay for resources we use</t>
-  </si>
-  <si>
-    <t>Azure pricing model</t>
-  </si>
-  <si>
-    <t>Static assets are served through a content delivery network</t>
-  </si>
-  <si>
-    <t>??? - Ask Brian</t>
-  </si>
-  <si>
-    <t>Application is hosted on commodity hardware</t>
-  </si>
-  <si>
-    <t>Azure dashboard report and configuration screen - host neutral</t>
-  </si>
-  <si>
-    <t>Play 10 - Automate testing and deployments</t>
-  </si>
-  <si>
-    <t>Create automated tests that verify all user-facing functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot and log results from testing </t>
-  </si>
-  <si>
-    <t>Create unit and integration tests to verify modules and components</t>
-  </si>
-  <si>
-    <t>Log results from unit tests</t>
-  </si>
-  <si>
-    <t>Run tests automatically as part of the build process</t>
-  </si>
-  <si>
-    <t>Continious Integration Diagram</t>
-  </si>
-  <si>
-    <t>Perform deployments automatically with deployment scripts, continuous delivery services, or similar techniques</t>
-  </si>
-  <si>
-    <t>Conduct load and performance tests at regular intervals, including before public launch</t>
-  </si>
-  <si>
-    <t>Backlog story for load testing</t>
-  </si>
-  <si>
-    <t>Play 11 - Manage security and privacy through reusable processes</t>
-  </si>
-  <si>
-    <t>Contact the appropriate privacy or legal officer of the department or agency to determine whether a System of Records Notice (SORN), Privacy Impact Assessment, or other review should be conducted</t>
-  </si>
-  <si>
-    <t>TBD -- may create a Privacy Impact Assessment, based on Chuck's availability (Discuss how we typically comply: This is typical practice on CGI's engagements. We identified information to be collected in concert with the CGI Security Engineer, who acted as Privacy Officer for this proof of concept.)</t>
-  </si>
-  <si>
-    <t>Determine, in consultation with a records officer, what data is collected and why, how it is used or shared, how it is stored and secured, and how long it is kept</t>
-  </si>
-  <si>
-    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as Records Officer.)</t>
-  </si>
-  <si>
-    <t>Determine, in consultation with a privacy specialist, whether and how users are notified about how personal information is collected and used, including whether a privacy policy is needed and where it should appear, and how users will be notified in the event of a security breach</t>
-  </si>
-  <si>
-    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as privacy specialist.)</t>
-  </si>
-  <si>
-    <t>Consider whether the user should be able to access, delete, or remove their information from the service</t>
-  </si>
-  <si>
-    <t>TBD -- may create a Privacy Policy (We considered these options in the creation of privacy policy.)</t>
-  </si>
-  <si>
-    <t>“Pre-certify” the hosting infrastructure used for the project using FedRAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGI makes hosting recommendations based on project requirements and client security standards, and assesses the infrastructure against those standards prior to deploying the application. If FedRAMP compliance is required, we would recommend CalCloud, the Azure Government Cloud, or another comparable solution that has been FedRAMP certified or independently assessed as FedRAMP compliant. </t>
-  </si>
-  <si>
-    <t>Use deployment scripts to ensure configuration of production environment remains consistent and controllable</t>
-  </si>
-  <si>
-    <t>Azure powershell scripts in Github (we use powershell scripts to confirm that production environment configuration is consistent; Jenkins scripts and Docker containers to confirm that application configuration is consistent)</t>
-  </si>
-  <si>
-    <t>Play 12 - Use data to drive decisions</t>
-  </si>
-  <si>
-    <t>Monitor system-level resource utilization in real time</t>
-  </si>
-  <si>
-    <t>New relic and azure dashboards</t>
-  </si>
-  <si>
-    <t>Monitor system performance in real-time (e.g. response time, latency, throughput, and error rates)</t>
-  </si>
-  <si>
-    <t>Ensure monitoring can measure median, 95th percentile, and 98th percentile performance</t>
-  </si>
-  <si>
-    <t>Create automated alerts based on this monitoring</t>
-  </si>
-  <si>
-    <t>Track concurrent users in real-time, and monitor user behaviors in the aggregate to determine how well the service meets user needs</t>
-  </si>
-  <si>
-    <t>Create a backlog story</t>
-  </si>
-  <si>
-    <t>Publish metrics internally</t>
-  </si>
-  <si>
-    <t>Publish metrics externally</t>
-  </si>
-  <si>
-    <t>Use an experimentation tool that supports multivariate testing in production</t>
-  </si>
-  <si>
-    <t>Play 13 - Default to open</t>
-  </si>
-  <si>
-    <t>Offer users a mechanism to report bugs and issues, and be responsive to these reports</t>
-  </si>
-  <si>
-    <t>Create backlog story - Feedback mechanism to report bugs/issues</t>
-  </si>
-  <si>
-    <t>Provide datasets to the public, in their entirety, through bulk downloads and APIs (application programming interfaces)</t>
-  </si>
-  <si>
-    <t>Comment in the 2000 word that our architecture supports</t>
-  </si>
-  <si>
-    <t>Ensure that data from the service is explicitly in the public domain, and that rights are waived globally via an international public domain dedication, such as the “Creative Commons Zero” waiver</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Catalog data in the agency’s enterprise data inventory and add any public datasets to the agency’s public data listing</t>
-  </si>
-  <si>
-    <t>Ensure that we maintain the rights to all data developed by third parties in a manner that is releasable and reusable at no cost to the public</t>
-  </si>
-  <si>
-    <t>Ensure that we maintain contractual rights to all custom software developed by third parties in a manner that is publishable and reusable at no cost</t>
-  </si>
-  <si>
-    <t>When appropriate, create an API for third parties and internal users to interact with the service directly</t>
-  </si>
-  <si>
-    <t>When appropriate, publish source code of projects or components online</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>All code is published in GitHub</t>
-  </si>
-  <si>
-    <t>When appropriate, share your development process and progress publicly</t>
-  </si>
-  <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>Progress could be tracked through JIRA.</t>
-  </si>
-  <si>
-    <t>Final prototype</t>
+    <t>Project Roadmap</t>
+  </si>
+  <si>
+    <t>We conducted testing for Section 508 of the Americans with Disabilities Act and WCAG 2.0 - We used the tool ACTF Designer for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users stories were used and prioritized </t>
+  </si>
+  <si>
+    <t>We accomplished this through user stories as well as results from usability testing</t>
+  </si>
+  <si>
+    <t>Our roadmap provided a high-level structure for our major milestones</t>
+  </si>
+  <si>
+    <t>Based on our JIRA backlog we were able to adjust the work based on the responses of our PM as well as users</t>
+  </si>
+  <si>
+    <t>Our RACI provide a view of who had the responsibility and decision making authority.</t>
+  </si>
+  <si>
+    <t>Team members had experience with high-traffic digital services</t>
+  </si>
+  <si>
+    <t>Team members had experience with continuous integration and deployment techniques</t>
+  </si>
+  <si>
+    <t>Team members had experience securing digital services</t>
+  </si>
+  <si>
+    <t>We used commonly used software</t>
+  </si>
+  <si>
+    <t>Continuous Integration Diagram</t>
+  </si>
+  <si>
+    <t>Azure powershell scripts in GitHub (we use powershell scripts to confirm that production environment configuration is consistent; Jenkins scripts and Docker containers to confirm that application configuration is consistent)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,23 +800,6 @@
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -977,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1013,9 +939,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1029,9 +952,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1363,15 +1286,15 @@
   <dimension ref="A2:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C110" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="76.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="55" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="76.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="55" style="22" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1468,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1476,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -1487,7 +1410,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -1502,13 +1425,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1516,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1530,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1544,18 +1467,18 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1566,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1580,51 +1503,51 @@
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1632,13 +1555,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1646,18 +1569,18 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1668,13 +1591,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,13 +1605,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1696,13 +1619,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1710,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1724,13 +1647,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1738,13 +1661,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1752,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1766,13 +1689,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1780,16 +1703,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -1800,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1814,39 +1737,38 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="17"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1854,68 +1776,67 @@
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="17"/>
+      <c r="A43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -1926,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1940,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1954,13 +1875,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1968,28 +1889,28 @@
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2000,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2014,13 +1935,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2028,13 +1949,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2042,13 +1963,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2056,35 +1977,35 @@
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="A62" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2092,13 +2013,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2106,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,32 +2041,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+      <c r="A68" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -2154,10 +2075,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2166,10 +2087,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2178,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2190,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2202,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2214,30 +2135,30 @@
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2246,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2258,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2270,42 +2191,42 @@
         <v>3</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>155</v>
+      <c r="A82" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>158</v>
+        <v>137</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2314,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2326,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2338,21 +2259,21 @@
         <v>3</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2360,30 +2281,30 @@
         <v>3</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2392,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2404,10 +2325,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2416,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2428,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -2440,10 +2361,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2452,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -2464,30 +2385,30 @@
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -2496,60 +2417,60 @@
         <v>3</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="6" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="6" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -2558,13 +2479,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2572,13 +2493,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2607,9 +2528,26 @@
     <hyperlink ref="C63" r:id="rId14"/>
     <hyperlink ref="C64" r:id="rId15"/>
     <hyperlink ref="C65" r:id="rId16"/>
+    <hyperlink ref="C28" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C18" r:id="rId19"/>
+    <hyperlink ref="C19" r:id="rId20"/>
+    <hyperlink ref="C93" r:id="rId21"/>
+    <hyperlink ref="C94" r:id="rId22"/>
+    <hyperlink ref="C95" r:id="rId23"/>
+    <hyperlink ref="C96" r:id="rId24"/>
+    <hyperlink ref="C78" r:id="rId25"/>
+    <hyperlink ref="C79" r:id="rId26"/>
+    <hyperlink ref="C39" r:id="rId27"/>
+    <hyperlink ref="C14" r:id="rId28"/>
+    <hyperlink ref="C52" r:id="rId29"/>
+    <hyperlink ref="C49" r:id="rId30"/>
+    <hyperlink ref="C50" r:id="rId31"/>
+    <hyperlink ref="C80" r:id="rId32" display="Continious Integration Diagram"/>
+    <hyperlink ref="C81" r:id="rId33" display="Continious Integration Diagram"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="18960" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Playbook Checklist" sheetId="1" r:id="rId1"/>
@@ -13,42 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Susan Lerman</author>
-  </authors>
-  <commentList>
-    <comment ref="C74" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Susan Lerman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-what do we think this means?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="231">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -125,9 +91,6 @@
     <t>Design the digital parts of the service so that they are integrated with the offline touch points people use to interact with the service</t>
   </si>
   <si>
-    <t>Wireframes</t>
-  </si>
-  <si>
     <t>Our wireframes provided a initial digital design and outlined how we expected users to interact with our prototype</t>
   </si>
   <si>
@@ -185,9 +148,6 @@
     <t>User stories, roadmap, JIRA</t>
   </si>
   <si>
-    <t>We had our MVP in 3 weeks time which met the core needs of our users</t>
-  </si>
-  <si>
     <t>Run Usability testing frequently to see how well the service works and identify improvements that should be made</t>
   </si>
   <si>
@@ -200,9 +160,6 @@
     <t>Communications</t>
   </si>
   <si>
-    <t>We used daily stand-ups and HipChat for regular team communications.  In addition we had a war room with physical board.</t>
-  </si>
-  <si>
     <t>Keep delivery teams small and focused; limit organizational layers that separate these teams from the business owners</t>
   </si>
   <si>
@@ -218,27 +175,18 @@
     <t>roadmap to pipeline to builds, version control, deployment logs</t>
   </si>
   <si>
-    <t>Release features and improvements were reviewed as part of sprint planning each week</t>
-  </si>
-  <si>
     <t>Create a prioritized list of features and bugs, also known as the “feature backlog” and “bug backlog”</t>
   </si>
   <si>
     <t>Jira backlog</t>
   </si>
   <si>
-    <t>We had an on going backlog in JIRA with a prioritized list of features</t>
-  </si>
-  <si>
     <t>Use a source code version control system</t>
   </si>
   <si>
     <t>GitHub</t>
   </si>
   <si>
-    <t>GitHub is the source of our code and versions</t>
-  </si>
-  <si>
     <t>Give the entire project team access to the issue tracker and version control system</t>
   </si>
   <si>
@@ -261,9 +209,6 @@
   </si>
   <si>
     <t>Spreadsheet blurb: created a "Login" application to validate design, code management, build, and deployment approaches</t>
-  </si>
-  <si>
-    <t>The team was given a budget in which the PM tracked to</t>
   </si>
   <si>
     <t>Contract is structured to request frequent deliverables, not multi-month milestones</t>
@@ -309,9 +254,6 @@
     <t>Contract ensures open source solutions are evaluated when technology choices are made</t>
   </si>
   <si>
-    <t>Software list (evaluated open source for every step in stack)</t>
-  </si>
-  <si>
     <t>We used open source technology throughout.</t>
   </si>
   <si>
@@ -346,12 +288,6 @@
     <t>Contract allows us to use tools, services, and hosting from vendors with a variety of pricing models, including fixed fees and variable models like “pay-for-what-you-use” services</t>
   </si>
   <si>
-    <t>Software list (e.g., pay-what-you-use for Azure, monthly license for Atlassian, open source for others)</t>
-  </si>
-  <si>
-    <t>Do we want to provide any evidence?</t>
-  </si>
-  <si>
     <t>Contract specifies a warranty period where defects uncovered by the public are addressed by the vendor at no additional cost to the government</t>
   </si>
   <si>
@@ -367,24 +303,15 @@
     <t>RACI</t>
   </si>
   <si>
-    <t>We identified one person to serve at the PM for the prototype.  The PM had ultimate decision making authority</t>
-  </si>
-  <si>
     <t>All stakeholders agree that the product owner has the authority to assign tasks and make decisions about features and technical implementation details</t>
   </si>
   <si>
     <t>The product owner has a product management background with technical experience to assess alternatives and weigh tradeoffs</t>
   </si>
   <si>
-    <t>The PM served the role of PO on this effort given the labor categories outlined in Attachment B: PQVP DS-AD Labor Category Descriptions</t>
-  </si>
-  <si>
     <t>The product owner has a work plan that includes budget estimates and identifies funding sources</t>
   </si>
   <si>
-    <t>The roadmap served as the workplan for the PM.  Budgeting was handled by the PM</t>
-  </si>
-  <si>
     <t>The product owner has a strong relationship with the contracting officer</t>
   </si>
   <si>
@@ -448,39 +375,24 @@
     <t>Resources are provisioned on demand</t>
   </si>
   <si>
-    <t>Azure dashboard report and configuration screen</t>
-  </si>
-  <si>
     <t>Resources scale based on real-time user demand</t>
   </si>
   <si>
     <t>Resources are provisioned through an API</t>
   </si>
   <si>
-    <t>Database as a service</t>
-  </si>
-  <si>
     <t>Resources are available in multiple regions</t>
   </si>
   <si>
     <t>We only pay for resources we use</t>
   </si>
   <si>
-    <t>Azure pricing model</t>
-  </si>
-  <si>
     <t>Static assets are served through a content delivery network</t>
   </si>
   <si>
-    <t>??? - Ask Brian</t>
-  </si>
-  <si>
     <t>Application is hosted on commodity hardware</t>
   </si>
   <si>
-    <t>Azure dashboard report and configuration screen - host neutral</t>
-  </si>
-  <si>
     <t>Play 10 - Automate testing and deployments</t>
   </si>
   <si>
@@ -508,27 +420,15 @@
     <t>Contact the appropriate privacy or legal officer of the department or agency to determine whether a System of Records Notice (SORN), Privacy Impact Assessment, or other review should be conducted</t>
   </si>
   <si>
-    <t>TBD -- may create a Privacy Impact Assessment, based on Chuck's availability (Discuss how we typically comply: This is typical practice on CGI's engagements. We identified information to be collected in concert with the CGI Security Engineer, who acted as Privacy Officer for this proof of concept.)</t>
-  </si>
-  <si>
     <t>Determine, in consultation with a records officer, what data is collected and why, how it is used or shared, how it is stored and secured, and how long it is kept</t>
   </si>
   <si>
-    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as Records Officer.)</t>
-  </si>
-  <si>
     <t>Determine, in consultation with a privacy specialist, whether and how users are notified about how personal information is collected and used, including whether a privacy policy is needed and where it should appear, and how users will be notified in the event of a security breach</t>
   </si>
   <si>
-    <t>TBD -- may create a Privacy Policy (For this proof-of-concept, CGI Security Engineer acted as privacy specialist.)</t>
-  </si>
-  <si>
     <t>Consider whether the user should be able to access, delete, or remove their information from the service</t>
   </si>
   <si>
-    <t>TBD -- may create a Privacy Policy (We considered these options in the creation of privacy policy.)</t>
-  </si>
-  <si>
     <t>“Pre-certify” the hosting infrastructure used for the project using FedRAMP</t>
   </si>
   <si>
@@ -574,21 +474,12 @@
     <t>Offer users a mechanism to report bugs and issues, and be responsive to these reports</t>
   </si>
   <si>
-    <t>Create backlog story - Feedback mechanism to report bugs/issues</t>
-  </si>
-  <si>
     <t>Provide datasets to the public, in their entirety, through bulk downloads and APIs (application programming interfaces)</t>
   </si>
   <si>
-    <t>Comment in the 2000 word that our architecture supports</t>
-  </si>
-  <si>
     <t>Ensure that data from the service is explicitly in the public domain, and that rights are waived globally via an international public domain dedication, such as the “Creative Commons Zero” waiver</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Catalog data in the agency’s enterprise data inventory and add any public datasets to the agency’s public data listing</t>
   </si>
   <si>
@@ -604,22 +495,13 @@
     <t>When appropriate, publish source code of projects or components online</t>
   </si>
   <si>
-    <t>All code is published in GitHub</t>
-  </si>
-  <si>
     <t>When appropriate, share your development process and progress publicly</t>
   </si>
   <si>
     <t>JIRA</t>
   </si>
   <si>
-    <t>Progress could be tracked through JIRA.</t>
-  </si>
-  <si>
     <t>Final prototype</t>
-  </si>
-  <si>
-    <t>We used the US Web Design Standards</t>
   </si>
   <si>
     <t>US Web Design Standards</t>
@@ -702,9 +584,6 @@
     <t>Based on our JIRA backlog we were able to adjust the work based on the responses of our PM as well as users</t>
   </si>
   <si>
-    <t>Our RACI provide a view of who had the responsibility and decision making authority.</t>
-  </si>
-  <si>
     <t>Team members had experience with high-traffic digital services</t>
   </si>
   <si>
@@ -714,20 +593,227 @@
     <t>Team members had experience securing digital services</t>
   </si>
   <si>
-    <t>We used commonly used software</t>
-  </si>
-  <si>
     <t>Continuous Integration Diagram</t>
   </si>
   <si>
     <t>Azure powershell scripts in GitHub (we use powershell scripts to confirm that production environment configuration is consistent; Jenkins scripts and Docker containers to confirm that application configuration is consistent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used the Key Performance Indicator (KPI) data to fine- tune our infrastructure solution and our application. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested and deployed the prototype on Microsoft’s Azure Infrastructure as a Service (IaaS) solution. We used Azure’s monitoring solution for continuous infrastructure monitoring including networking, and New Relic for continuous application performance monitoring. We used the Key Performance Indicator (KPI) data to fine- tune our infrastructure solution and our application. </t>
+  </si>
+  <si>
+    <t>JIRA was the tool we used to report bugs and issues.</t>
+  </si>
+  <si>
+    <t>Roberto has a paper. Photo album has examples.</t>
+  </si>
+  <si>
+    <t>Cite examples where spike research development for a IOS app and push services was performed and then backlogged when it became clear they were not MVP viable.</t>
+  </si>
+  <si>
+    <t>Cite Azure, report resources used.  Connect to Azure material on "pay and you use" services.</t>
+  </si>
+  <si>
+    <t>Isn't this really a federal funding requirement? Use escrow to manage code.</t>
+  </si>
+  <si>
+    <t>Why N/A - use the CGI answer provided.</t>
+  </si>
+  <si>
+    <t>Summary table with experience?</t>
+  </si>
+  <si>
+    <t>Summary table with experience?
+Mention recent CW mobile win in CO.</t>
+  </si>
+  <si>
+    <t>Summary table with experience?
+Show CA MMIS testing experience.
+CGI COI on testing in VA.</t>
+  </si>
+  <si>
+    <t>Show full tech stack showing …
+5 modern tools
+open tools
+all tools
+Table should also include the role each tool performs for the App.</t>
+  </si>
+  <si>
+    <t>Show how Azure does this…
+VM based
+Intel friendly</t>
+  </si>
+  <si>
+    <t>make sure we how unit vs. integration tests</t>
+  </si>
+  <si>
+    <t>Show how…user facing…</t>
+  </si>
+  <si>
+    <t>Diagram + Log</t>
+  </si>
+  <si>
+    <t>Show some the Azure monitoring screens….</t>
+  </si>
+  <si>
+    <t>Tie back to Azure monitoring screens….</t>
+  </si>
+  <si>
+    <t>Why N/A - use the CGI answer provided. Typical CGI warranty is 30 days?</t>
+  </si>
+  <si>
+    <t>Reference Photo album with him leading discussions and on HipChat addressing questions. 
+Underscore the teaming agreement where we cite roles and who owns direction.</t>
+  </si>
+  <si>
+    <t>The roadmap served as the work plan for the PM.  Budgeting was handled by the PM</t>
+  </si>
+  <si>
+    <t>Show examples
+Show metrics including Techincal Debt tracking</t>
+  </si>
+  <si>
+    <t>Also w/ GitHub and the artifacts within</t>
+  </si>
+  <si>
+    <t>Document code layout</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixth grade reading level - app used by Gab </t>
+  </si>
+  <si>
+    <t>We had our MVP in 3 weeks time which met the core needs of our users. Backlog shows mature future roadmap for additional business value</t>
+  </si>
+  <si>
+    <t>We identified one person to serve at the PM for the prototype.  The PM had ultimate decision making authority - REPEAT A language</t>
+  </si>
+  <si>
+    <t>Team agreement</t>
+  </si>
+  <si>
+    <t>Our RACI and team agreement clarify that the PM has responsibility and decision making authority.</t>
+  </si>
+  <si>
+    <t>The PM served the role of PO on this effort given the labor categories outlined in Attachment B: PQVP DS-AD Labor Category Descriptions.  The PM has had several projects serving in same/similar roles.</t>
+  </si>
+  <si>
+    <t>The team was given a budget which the PM tracked to</t>
+  </si>
+  <si>
+    <t>Show how…add link to graph on technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are screenshots - …what we - Nicole T. response </t>
+  </si>
+  <si>
+    <t>Gab to test</t>
+  </si>
+  <si>
+    <t>We employed commonly used software such as Docker, Jenkins,</t>
+  </si>
+  <si>
+    <t>Azure supports this option.</t>
+  </si>
+  <si>
+    <t>Azure supports this option.  We monitored to pay for only the resources we needed.</t>
+  </si>
+  <si>
+    <t>While not applicable for this POC we have used dedicated content delivery resources on past projects</t>
+  </si>
+  <si>
+    <t>Yes our prototype is hosted on Azure</t>
+  </si>
+  <si>
+    <t>Mike will get URLs</t>
+  </si>
+  <si>
+    <t>README Techinical Approach outlines this in detail.</t>
+  </si>
+  <si>
+    <t>This is typical practice on CGI's engagements. We identified information to be collected in concert with the CGI Security Engineer, who acted as Privacy Officer for this proof of concept.</t>
+  </si>
+  <si>
+    <t>We consulted with the who CGI Security Engineer acted as Records Officer for this POC.</t>
+  </si>
+  <si>
+    <t>CGI security officer drew up a requirements for a site privacy policy.  The policy is reflected in our JIRA backlog as story PQVP-18.</t>
+  </si>
+  <si>
+    <t>As part of our policy reflected in our JIRA backlog as story PQVP-18, we considered whether users should be able to access, delete and remove their information</t>
+  </si>
+  <si>
+    <t>Azure monitoring resources can be configured to monitor and alert at various resource thresholds for instance 95, 98 percent utilitzation.</t>
+  </si>
+  <si>
+    <t>We configured Azure to provide automated alerts.</t>
+  </si>
+  <si>
+    <t>New Relic provides monitoring for the purposes of our POC.  In addition, we have a backlog story : PQVP - 51 to expand our monitoring capabilities.</t>
+  </si>
+  <si>
+    <t>To be provided under backlog story : PQVP - 51 to expand our monitoring capabilities.</t>
+  </si>
+  <si>
+    <t>To be provided under backlog story : XXXX</t>
+  </si>
+  <si>
+    <t>Export of JIRA; Metrics</t>
+  </si>
+  <si>
+    <t>Our architecture supports an API interface layer.</t>
+  </si>
+  <si>
+    <t>Link to Swagger for API inventory - Roberto can provide</t>
+  </si>
+  <si>
+    <t>The data we provide is passed through from open data sources such as USGS and NOAA.</t>
+  </si>
+  <si>
+    <t>For the scope of this POC we believe that there is no agency data present.  We would align to this goal on applicable projects</t>
+  </si>
+  <si>
+    <t>The third party data used in our POC is passed through from open data sources such as USGS and NOAA.</t>
+  </si>
+  <si>
+    <t>There is no custom third party software used on this POC.  CGI's best practice  is to include third party software licensing with our client agreement.</t>
+  </si>
+  <si>
+    <t>All code is published in GitHub.  See section XXX of README</t>
+  </si>
+  <si>
+    <t>Progress is tracked through JIRA.  Our evidence on our process is stored in GitHub.  We have a backlog story: PQPV-53 to migrate to an open instance of JIRA.</t>
+  </si>
+  <si>
+    <t>We used daily stand-ups and HipChat for regular team communications.  In addition we had a war room with physical board.  At the conclusion of each sprint the team performed a Retrospective to identify process/technical improvements</t>
+  </si>
+  <si>
+    <t>Wireflows</t>
+  </si>
+  <si>
+    <t>We used the US Web Design Standards.  We tested to ensure that the application was at a 6th grade reading level of less using…..XXXX</t>
+  </si>
+  <si>
+    <t>Release features and improvements were reviewed as part of sprint planning each week. Test environment was available w/ early builds of the product.</t>
+  </si>
+  <si>
+    <t>We had an on going backlog in JIRA with a prioritized list of features.  Backlog shows mature future roadmap for additional business value.</t>
+  </si>
+  <si>
+    <t>GitHub is the source of our code and versions.  Main branch and integration branch management. GitHub tied into CD/CI process.  
+Our Continuous Integration and Deployment section of the README provides further details.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,13 +867,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
@@ -805,20 +884,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,8 +909,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -898,12 +976,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -945,21 +1054,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -972,6 +1075,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -980,6 +1113,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,23 +1436,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C110" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="76.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="55" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="45.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="55" style="20" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="24" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="42" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1391,10 +1553,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1408,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1445,10 +1607,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1456,1060 +1618,1193 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="D33" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="C42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="23" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E43" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+    </row>
+    <row r="50" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
+    </row>
+    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="D65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E65" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="C66" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E66" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-    </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C74" s="41"/>
+      <c r="D74" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="C75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
+    </row>
+    <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="C78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C79" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C80" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="C81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="C82" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
+    </row>
+    <row r="85" spans="1:5" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C86" s="23"/>
+      <c r="D86" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="C88" s="23"/>
+      <c r="D88" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-    </row>
-    <row r="85" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
+    </row>
+    <row r="93" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="C98" s="41"/>
+      <c r="D98" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-    </row>
-    <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
+    </row>
+    <row r="103" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
       <c r="B105" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+        <v>139</v>
+      </c>
+      <c r="C105" s="41"/>
+      <c r="D105" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
       <c r="B107" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B108" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
       <c r="B109" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C109" s="41"/>
+      <c r="D109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>173</v>
+        <v>224</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E32:L32"/>
     <mergeCell ref="A102:D102"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E49:J49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -2526,28 +2821,28 @@
     <hyperlink ref="C21" r:id="rId12"/>
     <hyperlink ref="C66" r:id="rId13"/>
     <hyperlink ref="C63" r:id="rId14"/>
-    <hyperlink ref="C64" r:id="rId15"/>
-    <hyperlink ref="C65" r:id="rId16"/>
-    <hyperlink ref="C28" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C18" r:id="rId19"/>
-    <hyperlink ref="C19" r:id="rId20"/>
-    <hyperlink ref="C93" r:id="rId21"/>
-    <hyperlink ref="C94" r:id="rId22"/>
-    <hyperlink ref="C95" r:id="rId23"/>
-    <hyperlink ref="C96" r:id="rId24"/>
-    <hyperlink ref="C78" r:id="rId25"/>
-    <hyperlink ref="C79" r:id="rId26"/>
-    <hyperlink ref="C39" r:id="rId27"/>
-    <hyperlink ref="C14" r:id="rId28"/>
-    <hyperlink ref="C52" r:id="rId29"/>
-    <hyperlink ref="C49" r:id="rId30"/>
-    <hyperlink ref="C50" r:id="rId31"/>
-    <hyperlink ref="C80" r:id="rId32" display="Continious Integration Diagram"/>
-    <hyperlink ref="C81" r:id="rId33" display="Continious Integration Diagram"/>
+    <hyperlink ref="C65" r:id="rId15"/>
+    <hyperlink ref="C28" r:id="rId16"/>
+    <hyperlink ref="C24" r:id="rId17"/>
+    <hyperlink ref="C18" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="C93" r:id="rId20"/>
+    <hyperlink ref="C94" r:id="rId21"/>
+    <hyperlink ref="C95" r:id="rId22"/>
+    <hyperlink ref="C96" r:id="rId23"/>
+    <hyperlink ref="C78" r:id="rId24"/>
+    <hyperlink ref="C79" r:id="rId25"/>
+    <hyperlink ref="C39" r:id="rId26"/>
+    <hyperlink ref="C14" r:id="rId27"/>
+    <hyperlink ref="C52" r:id="rId28"/>
+    <hyperlink ref="C49" r:id="rId29"/>
+    <hyperlink ref="C80" r:id="rId30" display="Continious Integration Diagram"/>
+    <hyperlink ref="C81" r:id="rId31" display="Continious Integration Diagram"/>
+    <hyperlink ref="C42" r:id="rId32"/>
+    <hyperlink ref="C44" r:id="rId33"/>
+    <hyperlink ref="C50" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="205">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
   <si>
-    <t>Artifact/Evidence</t>
-  </si>
-  <si>
     <t>CGI Response</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>Budget includes research, discovery, and prototyping activities</t>
-  </si>
-  <si>
-    <t>Spreadsheet blurb: created a "Login" application to validate design, code management, build, and deployment approaches</t>
   </si>
   <si>
     <t>Contract is structured to request frequent deliverables, not multi-month milestones</t>
@@ -324,15 +318,9 @@
     <t>Member(s) of the team have experience designing mobile and web applications</t>
   </si>
   <si>
-    <t>Team members had experience designing mobile and web applications</t>
-  </si>
-  <si>
     <t>Member(s) of the team have experience using automated testing frameworks</t>
   </si>
   <si>
-    <t xml:space="preserve">Team members had experience with automated testing </t>
-  </si>
-  <si>
     <t>Member(s) of the team have experience with modern development and operations (DevOps) techniques like continuous integration and continuous deployment</t>
   </si>
   <si>
@@ -349,9 +337,6 @@
   </si>
   <si>
     <t>Whenever possible, ensure that software can be deployed on a variety of commodity hardware types</t>
-  </si>
-  <si>
-    <t>We tested on a variety of hardware types</t>
   </si>
   <si>
     <t>Ensure that each project has clear, understandable instructions for setting up a local development environment, and that team members can be quickly added or removed from projects</t>
@@ -584,15 +569,6 @@
     <t>Based on our JIRA backlog we were able to adjust the work based on the responses of our PM as well as users</t>
   </si>
   <si>
-    <t>Team members had experience with high-traffic digital services</t>
-  </si>
-  <si>
-    <t>Team members had experience with continuous integration and deployment techniques</t>
-  </si>
-  <si>
-    <t>Team members had experience securing digital services</t>
-  </si>
-  <si>
     <t>Continuous Integration Diagram</t>
   </si>
   <si>
@@ -608,86 +584,9 @@
     <t>JIRA was the tool we used to report bugs and issues.</t>
   </si>
   <si>
-    <t>Roberto has a paper. Photo album has examples.</t>
-  </si>
-  <si>
-    <t>Cite examples where spike research development for a IOS app and push services was performed and then backlogged when it became clear they were not MVP viable.</t>
-  </si>
-  <si>
-    <t>Cite Azure, report resources used.  Connect to Azure material on "pay and you use" services.</t>
-  </si>
-  <si>
-    <t>Isn't this really a federal funding requirement? Use escrow to manage code.</t>
-  </si>
-  <si>
-    <t>Why N/A - use the CGI answer provided.</t>
-  </si>
-  <si>
-    <t>Summary table with experience?</t>
-  </si>
-  <si>
-    <t>Summary table with experience?
-Mention recent CW mobile win in CO.</t>
-  </si>
-  <si>
-    <t>Summary table with experience?
-Show CA MMIS testing experience.
-CGI COI on testing in VA.</t>
-  </si>
-  <si>
-    <t>Show full tech stack showing …
-5 modern tools
-open tools
-all tools
-Table should also include the role each tool performs for the App.</t>
-  </si>
-  <si>
-    <t>Show how Azure does this…
-VM based
-Intel friendly</t>
-  </si>
-  <si>
-    <t>make sure we how unit vs. integration tests</t>
-  </si>
-  <si>
-    <t>Show how…user facing…</t>
-  </si>
-  <si>
-    <t>Diagram + Log</t>
-  </si>
-  <si>
-    <t>Show some the Azure monitoring screens….</t>
-  </si>
-  <si>
-    <t>Tie back to Azure monitoring screens….</t>
-  </si>
-  <si>
-    <t>Why N/A - use the CGI answer provided. Typical CGI warranty is 30 days?</t>
-  </si>
-  <si>
-    <t>Reference Photo album with him leading discussions and on HipChat addressing questions. 
-Underscore the teaming agreement where we cite roles and who owns direction.</t>
-  </si>
-  <si>
     <t>The roadmap served as the work plan for the PM.  Budgeting was handled by the PM</t>
   </si>
   <si>
-    <t>Show examples
-Show metrics including Techincal Debt tracking</t>
-  </si>
-  <si>
-    <t>Also w/ GitHub and the artifacts within</t>
-  </si>
-  <si>
-    <t>Document code layout</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixth grade reading level - app used by Gab </t>
-  </si>
-  <si>
     <t>We had our MVP in 3 weeks time which met the core needs of our users. Backlog shows mature future roadmap for additional business value</t>
   </si>
   <si>
@@ -706,18 +605,6 @@
     <t>The team was given a budget which the PM tracked to</t>
   </si>
   <si>
-    <t>Show how…add link to graph on technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are screenshots - …what we - Nicole T. response </t>
-  </si>
-  <si>
-    <t>Gab to test</t>
-  </si>
-  <si>
-    <t>We employed commonly used software such as Docker, Jenkins,</t>
-  </si>
-  <si>
     <t>Azure supports this option.</t>
   </si>
   <si>
@@ -769,9 +656,6 @@
     <t>Our architecture supports an API interface layer.</t>
   </si>
   <si>
-    <t>Link to Swagger for API inventory - Roberto can provide</t>
-  </si>
-  <si>
     <t>The data we provide is passed through from open data sources such as USGS and NOAA.</t>
   </si>
   <si>
@@ -784,9 +668,6 @@
     <t>There is no custom third party software used on this POC.  CGI's best practice  is to include third party software licensing with our client agreement.</t>
   </si>
   <si>
-    <t>All code is published in GitHub.  See section XXX of README</t>
-  </si>
-  <si>
     <t>Progress is tracked through JIRA.  Our evidence on our process is stored in GitHub.  We have a backlog story: PQPV-53 to migrate to an open instance of JIRA.</t>
   </si>
   <si>
@@ -794,9 +675,6 @@
   </si>
   <si>
     <t>Wireflows</t>
-  </si>
-  <si>
-    <t>We used the US Web Design Standards.  We tested to ensure that the application was at a 6th grade reading level of less using…..XXXX</t>
   </si>
   <si>
     <t>Release features and improvements were reviewed as part of sprint planning each week. Test environment was available w/ early builds of the product.</t>
@@ -807,13 +685,52 @@
   <si>
     <t>GitHub is the source of our code and versions.  Main branch and integration branch management. GitHub tied into CD/CI process.  
 Our Continuous Integration and Deployment section of the README provides further details.</t>
+  </si>
+  <si>
+    <t>Team members have deep experience with high-traffic digital services, with an average of 7 years of experience per team member.</t>
+  </si>
+  <si>
+    <t>Team members have strong experience designing mobile and web applications, with an average of 10 years of experience per member.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team members have detailed experience with automated testing, with an average of 6 years of experience per member. </t>
+  </si>
+  <si>
+    <t>CGI is recognized as a national leader in the Cybersecurity domain, working with federal and state agencies to secure their digital services. Our team Security Officer and development members brought that experience to the POC effort.</t>
+  </si>
+  <si>
+    <t>Team members bring nearly 7 years of experience on average providing DevOps support for both government and commercial clients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We tested on a variety of hardware types:
+PC: IE11; Chrome; Firefox
+Mac:  Safari 
+iPad: Chrome; Safari 
+iPhone: Safari 
+Android: Chrome
+</t>
+  </si>
+  <si>
+    <t>We used the US Web Design Standards.  We used MSWord Readibilty stats to test for 6th grade reading level.</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>All code is published in GitHub.  See section Continuous Integration and Deployment of README</t>
+  </si>
+  <si>
+    <t>Artifact/Evidence/Source</t>
+  </si>
+  <si>
+    <t>We employed commonly used software frameworks such as Docker and Jenkins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,8 +806,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,12 +829,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,17 +871,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -974,26 +880,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1007,12 +893,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1063,9 +986,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1081,59 +1001,44 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1437,1374 +1342,1324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A2:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E59" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="45.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="55" style="20" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" style="24" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="42" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="45.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="55" style="19" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="42" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="14" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="C41" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="D41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="14" t="s">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="C44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="D49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-    </row>
-    <row r="50" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="C52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="55" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="C57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="D63" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-    </row>
-    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="B68" s="31"/>
+      <c r="C68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" s="25"/>
-    </row>
-    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="25"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" s="25"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="25"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" s="25"/>
-    </row>
-    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="31"/>
+      <c r="C77" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="2" t="s">
+      <c r="C80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-    </row>
-    <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="D84" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="C85" s="22"/>
+      <c r="D85" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="14" t="s">
+      <c r="C86" s="22"/>
+      <c r="D86" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C87" s="22"/>
+      <c r="D87" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="C88" s="22"/>
+      <c r="D88" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
-    </row>
-    <row r="85" spans="1:5" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
-    </row>
-    <row r="93" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="C97" s="24"/>
+      <c r="D97" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="24" t="s">
+      <c r="D100" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" s="24" t="s">
+    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="D103" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="C104" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="C105" s="24"/>
+      <c r="D105" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
-    </row>
-    <row r="103" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="C107" s="24"/>
+      <c r="D107" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="C108" s="24"/>
+      <c r="D108" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="6" t="s">
+      <c r="C109" s="24"/>
+      <c r="D109" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="14" t="s">
+      <c r="C110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="6" t="s">
+      <c r="C111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C107" s="41"/>
-      <c r="D107" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E110" s="24" t="s">
+      <c r="D111" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E49:J49"/>
+  <mergeCells count="15">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -2841,8 +2696,9 @@
     <hyperlink ref="C42" r:id="rId32"/>
     <hyperlink ref="C44" r:id="rId33"/>
     <hyperlink ref="C50" r:id="rId34"/>
+    <hyperlink ref="C104" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="18960" windowHeight="6960"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="18960" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Playbook Checklist" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -118,15 +118,9 @@
     <t>508 Testing</t>
   </si>
   <si>
-    <t>N/A for POC</t>
-  </si>
-  <si>
     <t>Provide users with a way to exit and return later to complete the process</t>
   </si>
   <si>
-    <t>We do not collect enough data - users need to complete the minimum data in order to create a profile</t>
-  </si>
-  <si>
     <t>Use language that is familiar to the user and easy to understand</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>Ship a functioning “minimum viable product” (MVP) that solves a core user need as soon as possible, no longer than three months from the beginning of the project, using a “beta” or “test” period if needed</t>
   </si>
   <si>
-    <t>User stories, roadmap, JIRA</t>
-  </si>
-  <si>
     <t>Run Usability testing frequently to see how well the service works and identify improvements that should be made</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>Create a prioritized list of features and bugs, also known as the “feature backlog” and “bug backlog”</t>
   </si>
   <si>
-    <t>Jira backlog</t>
-  </si>
-  <si>
     <t>Use a source code version control system</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>Give the entire project team access to the issue tracker and version control system</t>
   </si>
   <si>
-    <t>GitHub and Jira</t>
-  </si>
-  <si>
     <t>The entire team had access to GitHub and JIRA</t>
   </si>
   <si>
@@ -214,31 +199,6 @@
     <t>Contract is structured to hold vendors accountable to deliverables</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CGI's contracts and partner agreements are typically deliverable-based or otherwise tied to performance</t>
-    </r>
-  </si>
-  <si>
     <t>Contract gives the government delivery team enough flexibility to adjust feature prioritization and delivery schedule as the project evolves</t>
   </si>
   <si>
@@ -254,31 +214,6 @@
     <t>Contract specifies that software and data generated by third parties remains under our control, and can be reused and released to the public as appropriate and in accordance with the law</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CGI's partner agreements  include similar language</t>
-    </r>
-  </si>
-  <si>
     <t>Contract allows us to use tools, services, and hosting from vendors with a variety of pricing models, including fixed fees and variable models like “pay-for-what-you-use” services</t>
   </si>
   <si>
@@ -441,9 +376,6 @@
     <t>Track concurrent users in real-time, and monitor user behaviors in the aggregate to determine how well the service meets user needs</t>
   </si>
   <si>
-    <t>Create a backlog story</t>
-  </si>
-  <si>
     <t>Publish metrics internally</t>
   </si>
   <si>
@@ -495,62 +427,6 @@
     <t>New Relic and Azure Dashboards</t>
   </si>
   <si>
-    <t>Deployment Log</t>
-  </si>
-  <si>
-    <t>Our prototype did not incorporate a process for which a user would need guidance as to where the users is.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CGI's contracts include a warranty period if identified in the customer requirements</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CGI's managed services contracts typically include transition period and transition out plan. Similarly, CGI's SI&amp;C contracts typically include joint effort and knowledge transfer plans</t>
-    </r>
-  </si>
-  <si>
     <t>Project Roadmap</t>
   </si>
   <si>
@@ -614,12 +490,6 @@
     <t>While not applicable for this POC we have used dedicated content delivery resources on past projects</t>
   </si>
   <si>
-    <t>Yes our prototype is hosted on Azure</t>
-  </si>
-  <si>
-    <t>Mike will get URLs</t>
-  </si>
-  <si>
     <t>README Techinical Approach outlines this in detail.</t>
   </si>
   <si>
@@ -647,12 +517,6 @@
     <t>To be provided under backlog story : PQVP - 51 to expand our monitoring capabilities.</t>
   </si>
   <si>
-    <t>To be provided under backlog story : XXXX</t>
-  </si>
-  <si>
-    <t>Export of JIRA; Metrics</t>
-  </si>
-  <si>
     <t>Our architecture supports an API interface layer.</t>
   </si>
   <si>
@@ -663,9 +527,6 @@
   </si>
   <si>
     <t>The third party data used in our POC is passed through from open data sources such as USGS and NOAA.</t>
-  </si>
-  <si>
-    <t>There is no custom third party software used on this POC.  CGI's best practice  is to include third party software licensing with our client agreement.</t>
   </si>
   <si>
     <t>Progress is tracked through JIRA.  Our evidence on our process is stored in GitHub.  We have a backlog story: PQPV-53 to migrate to an open instance of JIRA.</t>
@@ -725,12 +586,58 @@
   <si>
     <t>We employed commonly used software frameworks such as Docker and Jenkins</t>
   </si>
+  <si>
+    <t>To be provided under backlog story : PQVP - 260 to add multivariate testing in production</t>
+  </si>
+  <si>
+    <t>Automated tests were run</t>
+  </si>
+  <si>
+    <t>Testing Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the POC, we used the Microsoft Azure cloud to provide hosting, platform and infrastructure support.
+Azure provides resources that can be provisioned dynamically, as user demand changes for production applications.
+We can allocate resources either via a web management console or via API.
+The Azure cloud is deployed across 32 regions worldwide, in secure highly available datacenters.
+</t>
+  </si>
+  <si>
+    <t>The Azure cloud is deployed across 32 regions worldwide, in secure highly available datacenters.</t>
+  </si>
+  <si>
+    <t>CGI's managed services contracts typically include transition period and transition out plan. Similarly, CGI's SI&amp;C contracts typically include joint effort and knowledge transfer plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the purposes of this POC this does not apply.  </t>
+  </si>
+  <si>
+    <t>There is no custom third party software used on this POC.  CGI's best practice is to include third party software licensing with our client agreement.</t>
+  </si>
+  <si>
+    <t>Users are able to easily identify where they are in our prototype</t>
+  </si>
+  <si>
+    <t>We collect very limited information in our POC.  CGI would follow best practice for future design enhancements that would allow users to save and return later to complete</t>
+  </si>
+  <si>
+    <t>JIRA Export</t>
+  </si>
+  <si>
+    <t>This is typical practice on CGI's engagements.  CGI's contracts and partner agreements are typically deliverable-based or otherwise tied to performance</t>
+  </si>
+  <si>
+    <t>This is typical practice on CGI's engagements. CGI's partner agreements  include similar language</t>
+  </si>
+  <si>
+    <t>CGI's managed services contracts include a warranty period if identified in the customer requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,23 +691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -808,6 +698,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -935,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -965,21 +861,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1001,26 +885,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1028,17 +924,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,16 +1243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E59" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="45.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="55" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="45.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="55" style="15" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="42" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
@@ -1365,7 +1264,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1452,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1475,7 +1374,7 @@
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -1506,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1517,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1543,7 +1442,7 @@
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1557,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1571,22 +1470,20 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
-        <v>146</v>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1600,19 +1497,17 @@
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1620,13 +1515,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1634,22 +1529,22 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -1660,29 +1555,29 @@
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1690,29 +1585,29 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+        <v>172</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1720,13 +1615,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1734,34 +1629,34 @@
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+        <v>175</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1769,13 +1664,11 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1783,20 +1676,20 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
@@ -1807,11 +1700,11 @@
         <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1819,24 +1712,23 @@
         <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>66</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1844,13 +1736,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1858,24 +1750,23 @@
         <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>72</v>
+      <c r="A43" s="11"/>
+      <c r="B43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="33" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1883,44 +1774,40 @@
         <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="15" t="s">
-        <v>147</v>
+      <c r="A45" s="11"/>
+      <c r="B45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="15" t="s">
-        <v>148</v>
+      <c r="A46" s="11"/>
+      <c r="B46" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -1931,32 +1818,32 @@
         <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
+        <v>150</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
     </row>
     <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1964,13 +1851,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1978,32 +1865,32 @@
         <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="33" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
@@ -2014,13 +1901,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>194</v>
+        <v>45</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2028,13 +1915,13 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>195</v>
+        <v>45</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2042,13 +1929,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>196</v>
+        <v>45</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2056,13 +1943,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>198</v>
+        <v>45</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2070,22 +1957,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>197</v>
+        <v>45</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1</v>
@@ -2096,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2110,11 +1997,11 @@
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2122,13 +2009,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2136,37 +2023,37 @@
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B68" s="31"/>
       <c r="C68" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2174,11 +2061,11 @@
         <v>2</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2186,11 +2073,11 @@
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2198,11 +2085,11 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2210,11 +2097,11 @@
         <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2222,34 +2109,32 @@
         <v>2</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="C74" s="20"/>
       <c r="D74" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B77" s="31"/>
       <c r="C77" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -2260,23 +2145,21 @@
         <v>2</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C79" s="7"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2284,10 +2167,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2296,85 +2179,83 @@
         <v>2</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>112</v>
+      <c r="A82" s="11"/>
+      <c r="B82" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23" t="s">
-        <v>173</v>
+      <c r="A85" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23" t="s">
-        <v>174</v>
+      <c r="A86" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="22"/>
+      <c r="A87" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="18"/>
       <c r="D87" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="22"/>
+      <c r="A88" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="18"/>
       <c r="D88" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -2382,11 +2263,11 @@
         <v>2</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2394,20 +2275,20 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -2418,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2432,13 +2313,13 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2446,13 +2327,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2460,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2474,11 +2355,11 @@
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="C97" s="20"/>
       <c r="D97" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2486,11 +2367,11 @@
         <v>2</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="C98" s="20"/>
       <c r="D98" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2498,11 +2379,11 @@
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="C99" s="20"/>
       <c r="D99" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2510,18 +2391,16 @@
         <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C100" s="32"/>
       <c r="D100" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B102" s="31"/>
       <c r="C102" s="3"/>
@@ -2532,13 +2411,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>182</v>
+        <v>124</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2546,13 +2425,13 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2560,11 +2439,11 @@
         <v>2</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="C105" s="20"/>
       <c r="D105" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2572,11 +2451,11 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="C106" s="17"/>
       <c r="D106" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2584,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C107" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="C107" s="20"/>
       <c r="D107" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2596,11 +2475,11 @@
         <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C108" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="C108" s="20"/>
       <c r="D108" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2608,11 +2487,11 @@
         <v>2</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="C109" s="20"/>
       <c r="D109" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2620,13 +2499,13 @@
         <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2634,22 +2513,17 @@
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
@@ -2660,6 +2534,11 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A92:B92"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -2685,20 +2564,21 @@
     <hyperlink ref="C94" r:id="rId21"/>
     <hyperlink ref="C95" r:id="rId22"/>
     <hyperlink ref="C96" r:id="rId23"/>
-    <hyperlink ref="C78" r:id="rId24"/>
-    <hyperlink ref="C79" r:id="rId25"/>
-    <hyperlink ref="C39" r:id="rId26"/>
-    <hyperlink ref="C14" r:id="rId27"/>
-    <hyperlink ref="C52" r:id="rId28"/>
-    <hyperlink ref="C49" r:id="rId29"/>
-    <hyperlink ref="C80" r:id="rId30" display="Continious Integration Diagram"/>
-    <hyperlink ref="C81" r:id="rId31" display="Continious Integration Diagram"/>
-    <hyperlink ref="C42" r:id="rId32"/>
-    <hyperlink ref="C44" r:id="rId33"/>
-    <hyperlink ref="C50" r:id="rId34"/>
-    <hyperlink ref="C104" r:id="rId35"/>
+    <hyperlink ref="C39" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="C52" r:id="rId26"/>
+    <hyperlink ref="C49" r:id="rId27"/>
+    <hyperlink ref="C80" r:id="rId28"/>
+    <hyperlink ref="C81" r:id="rId29" display="Continious Integration Diagram"/>
+    <hyperlink ref="C42" r:id="rId30"/>
+    <hyperlink ref="C44" r:id="rId31"/>
+    <hyperlink ref="C50" r:id="rId32"/>
+    <hyperlink ref="C104" r:id="rId33"/>
+    <hyperlink ref="C103" r:id="rId34"/>
+    <hyperlink ref="C27" r:id="rId35"/>
+    <hyperlink ref="C32" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -490,9 +490,6 @@
     <t>While not applicable for this POC we have used dedicated content delivery resources on past projects</t>
   </si>
   <si>
-    <t>README Techinical Approach outlines this in detail.</t>
-  </si>
-  <si>
     <t>This is typical practice on CGI's engagements. We identified information to be collected in concert with the CGI Security Engineer, who acted as Privacy Officer for this proof of concept.</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
   </si>
   <si>
     <t>As part of our policy reflected in our JIRA backlog as story PQVP-18, we considered whether users should be able to access, delete and remove their information</t>
-  </si>
-  <si>
-    <t>Azure monitoring resources can be configured to monitor and alert at various resource thresholds for instance 95, 98 percent utilitzation.</t>
   </si>
   <si>
     <t>We configured Azure to provide automated alerts.</t>
@@ -572,9 +566,6 @@
 </t>
   </si>
   <si>
-    <t>We used the US Web Design Standards.  We used MSWord Readibilty stats to test for 6th grade reading level.</t>
-  </si>
-  <si>
     <t>Swagger</t>
   </si>
   <si>
@@ -631,6 +622,15 @@
   </si>
   <si>
     <t>CGI's managed services contracts include a warranty period if identified in the customer requirements</t>
+  </si>
+  <si>
+    <t>README Technical Approach outlines this in detail.</t>
+  </si>
+  <si>
+    <t>Azure monitoring resources can be configured to monitor and alert at various resource thresholds for instance 95, 98 percent utilization.</t>
+  </si>
+  <si>
+    <t>We used the US Web Design Standards.  We used MSWord Readability stats to test for 6th grade reading level.</t>
   </si>
 </sst>
 </file>
@@ -906,6 +906,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -917,27 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:B77"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1369,12 +1369,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1437,12 +1437,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1478,12 +1478,12 @@
     </row>
     <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35" t="s">
-        <v>196</v>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1502,12 +1502,12 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
-        <v>197</v>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1535,16 +1535,16 @@
         <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="3" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1591,10 +1591,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+        <v>170</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1621,7 +1621,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1632,18 +1632,18 @@
         <v>49</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+        <v>173</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1656,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1684,12 +1684,12 @@
       <c r="D35" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
@@ -1726,9 +1726,9 @@
       <c r="B40" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>199</v>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1764,9 +1764,9 @@
       <c r="B43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="33" t="s">
-        <v>200</v>
+      <c r="C43" s="30"/>
+      <c r="D43" s="27" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1786,9 +1786,9 @@
       <c r="B45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>201</v>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1796,18 +1796,18 @@
       <c r="B46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>193</v>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -1826,11 +1826,11 @@
       <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -1880,8 +1880,8 @@
         <v>75</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="33" t="s">
-        <v>194</v>
+      <c r="D53" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
@@ -1907,7 +1907,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>45</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>45</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1963,16 +1963,16 @@
         <v>45</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2033,12 +2033,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="31"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2125,16 +2125,16 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="31"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>102</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2185,7 +2185,7 @@
         <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2199,12 +2199,12 @@
       <c r="D82" s="2"/>
     </row>
     <row r="84" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="31"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -2283,12 +2283,12 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="31"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>136</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2393,16 +2393,16 @@
       <c r="B100" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="32"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="31"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
@@ -2428,10 +2428,10 @@
         <v>125</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>51</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2519,11 +2519,16 @@
         <v>133</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
@@ -2534,11 +2539,6 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>

--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="18960" windowHeight="6900"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="18960" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Playbook Checklist" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="204">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Release features and improvements multiple times each month</t>
   </si>
   <si>
-    <t>roadmap to pipeline to builds, version control, deployment logs</t>
-  </si>
-  <si>
     <t>Create a prioritized list of features and bugs, also known as the “feature backlog” and “bug backlog”</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Use code reviews to ensure quality</t>
   </si>
   <si>
-    <t>Describe the process - blurb.  Peer review process?</t>
-  </si>
-  <si>
     <t>Play 5 - Structure budgets and contracts to support delivery</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
   </si>
   <si>
     <t>Conduct load and performance tests at regular intervals, including before public launch</t>
-  </si>
-  <si>
-    <t>Backlog story for load testing</t>
   </si>
   <si>
     <t>Play 11 - Manage security and privacy through reusable processes</t>
@@ -631,6 +622,21 @@
   </si>
   <si>
     <t>We used the US Web Design Standards.  We used MSWord Readability stats to test for 6th grade reading level.</t>
+  </si>
+  <si>
+    <t>To be provided under backlog story : PQVP - 49 to add load and performance testing</t>
+  </si>
+  <si>
+    <t>We provide a complete list of the tools we used in GitHub</t>
+  </si>
+  <si>
+    <t>Link to Sprint Process artifacts</t>
+  </si>
+  <si>
+    <t>Code Review Process</t>
+  </si>
+  <si>
+    <t>We followed a code review process which is outlined in our documentation</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,12 +725,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -855,9 +855,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -867,9 +864,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -921,23 +915,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,16 +1240,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="45.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="55" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="45.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55" style="13" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="42" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1351,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1369,12 +1366,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -1405,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1416,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1437,12 +1434,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1456,7 +1453,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1470,20 +1467,20 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>193</v>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1497,17 +1494,17 @@
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>194</v>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1518,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
@@ -1532,19 +1529,19 @@
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -1558,13 +1555,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1591,10 +1588,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+        <v>167</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1617,11 +1614,11 @@
       <c r="B31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>48</v>
+      <c r="C31" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1629,34 +1626,34 @@
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1664,32 +1661,34 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
@@ -1700,11 +1699,11 @@
         <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1712,23 +1711,23 @@
         <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
-        <v>196</v>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1736,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1750,23 +1749,23 @@
         <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="27" t="s">
-        <v>197</v>
+      <c r="C43" s="28"/>
+      <c r="D43" s="25" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1774,40 +1773,42 @@
         <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="25" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -1818,32 +1819,32 @@
         <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+        <v>147</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1851,13 +1852,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1865,32 +1866,32 @@
         <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="27" t="s">
-        <v>191</v>
+      <c r="A53" s="10"/>
+      <c r="B53" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
@@ -1901,13 +1902,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>175</v>
+      <c r="D56" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>176</v>
+      <c r="D57" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>177</v>
+      <c r="D58" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1943,13 +1944,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>179</v>
+      <c r="D59" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,22 +1958,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>178</v>
+      <c r="D60" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="32"/>
+      <c r="A62" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="34"/>
       <c r="C62" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1</v>
@@ -1983,13 +1984,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -1997,11 +1998,11 @@
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2009,13 +2010,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2023,22 +2024,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
@@ -2049,11 +2050,11 @@
         <v>2</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2061,11 +2062,11 @@
         <v>2</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2073,11 +2074,11 @@
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2085,11 +2086,11 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2097,11 +2098,11 @@
         <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2109,11 +2110,11 @@
         <v>2</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="C74" s="18"/>
       <c r="D74" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2121,20 +2122,20 @@
         <v>2</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="32"/>
+      <c r="A77" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="34"/>
       <c r="C77" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -2145,11 +2146,11 @@
         <v>2</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2157,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="2"/>
@@ -2167,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2179,83 +2180,83 @@
         <v>2</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="25" t="s">
+      <c r="A85" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19" t="s">
+      <c r="C88" s="16"/>
+      <c r="D88" s="2" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -2263,11 +2264,11 @@
         <v>2</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2275,20 +2276,20 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="32"/>
+      <c r="A92" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="34"/>
       <c r="C92" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -2299,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2313,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2327,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2341,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2355,11 +2356,11 @@
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="20"/>
+        <v>116</v>
+      </c>
+      <c r="C97" s="18"/>
       <c r="D97" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2367,11 +2368,11 @@
         <v>2</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2379,11 +2380,11 @@
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="20"/>
+        <v>118</v>
+      </c>
+      <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2391,18 +2392,18 @@
         <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="C100" s="24"/>
       <c r="D100" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="32"/>
+      <c r="A102" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="34"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
@@ -2411,13 +2412,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2425,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2439,11 +2440,11 @@
         <v>2</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C105" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2451,11 +2452,11 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="C106" s="15"/>
       <c r="D106" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2463,11 +2464,11 @@
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2475,11 +2476,11 @@
         <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="C108" s="18"/>
       <c r="D108" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2487,11 +2488,11 @@
         <v>2</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="20"/>
+        <v>127</v>
+      </c>
+      <c r="C109" s="18"/>
       <c r="D109" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2499,13 +2500,13 @@
         <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2513,22 +2514,17 @@
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
@@ -2539,6 +2535,11 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A92:B92"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -2577,8 +2578,10 @@
     <hyperlink ref="C103" r:id="rId34"/>
     <hyperlink ref="C27" r:id="rId35"/>
     <hyperlink ref="C32" r:id="rId36"/>
+    <hyperlink ref="C31" r:id="rId37"/>
+    <hyperlink ref="C35" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="18960" windowHeight="6840"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
   <si>
     <t>Play 1 - Understood What People Need</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Keep delivery teams small and focused; limit organizational layers that separate these teams from the business owners</t>
   </si>
   <si>
-    <t>Team list</t>
-  </si>
-  <si>
     <t>We worked with a small focus team.  The team had direct access to the PM</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Contract gives the government delivery team enough flexibility to adjust feature prioritization and delivery schedule as the project evolves</t>
   </si>
   <si>
-    <t>Jira backlog (Work structured in sprints with check-ins, with backlog grooming and resequencing)</t>
-  </si>
-  <si>
     <t>Contract ensures open source solutions are evaluated when technology choices are made</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
   </si>
   <si>
     <t>When appropriate, share your development process and progress publicly</t>
-  </si>
-  <si>
-    <t>JIRA</t>
   </si>
   <si>
     <t>Final prototype</t>
@@ -637,6 +628,9 @@
   </si>
   <si>
     <t>We followed a code review process which is outlined in our documentation</t>
+  </si>
+  <si>
+    <t>Team list (requirement b in GitHub readme.md)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -789,49 +783,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -885,15 +842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -912,29 +860,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,11 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K111"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,9 +1182,7 @@
     <col min="2" max="2" width="45.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="55" style="13" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="42" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1261,7 +1191,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1348,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1365,13 +1295,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -1402,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1413,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1433,19 +1363,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1453,13 +1383,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1467,23 +1397,23 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1494,34 +1424,34 @@
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>131</v>
+      <c r="C23" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1529,25 +1459,25 @@
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
@@ -1555,15 +1485,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1577,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1588,12 +1516,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -1601,59 +1527,50 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
+        <v>167</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1661,11 +1578,11 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1673,22 +1590,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
@@ -1699,11 +1616,11 @@
         <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1711,37 +1628,37 @@
         <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>60</v>
+      <c r="C41" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1749,23 +1666,23 @@
         <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="25" t="s">
-        <v>194</v>
+      <c r="B43" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1773,236 +1690,231 @@
         <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25" t="s">
-        <v>195</v>
+      <c r="B45" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="34"/>
+      <c r="B46" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="C52" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="19" t="s">
+      <c r="C58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2010,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2024,22 +1936,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
@@ -2050,11 +1962,11 @@
         <v>2</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2062,11 +1974,11 @@
         <v>2</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2074,11 +1986,11 @@
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2086,11 +1998,11 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2098,11 +2010,11 @@
         <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2110,11 +2022,11 @@
         <v>2</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2122,20 +2034,20 @@
         <v>2</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="34"/>
+      <c r="A77" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="27"/>
       <c r="C77" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -2146,11 +2058,11 @@
         <v>2</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2158,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="2"/>
@@ -2168,10 +2080,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2180,83 +2092,83 @@
         <v>2</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="23" t="s">
-        <v>102</v>
+      <c r="B82" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="34"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="27"/>
       <c r="C84" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>104</v>
+      <c r="A85" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>105</v>
+      <c r="A86" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>106</v>
+      <c r="A87" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>107</v>
+      <c r="A88" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -2264,11 +2176,11 @@
         <v>2</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2276,20 +2188,20 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="34"/>
+      <c r="A92" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="27"/>
       <c r="C92" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -2300,13 +2212,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2314,13 +2226,13 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2328,13 +2240,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2342,13 +2254,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2356,11 +2268,11 @@
         <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2368,11 +2280,11 @@
         <v>2</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2380,11 +2292,11 @@
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2392,18 +2304,18 @@
         <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="C100" s="21"/>
       <c r="D100" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="34"/>
+      <c r="A102" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="27"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
@@ -2412,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2426,13 +2338,13 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -2440,11 +2352,11 @@
         <v>2</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2452,11 +2364,11 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2464,11 +2376,11 @@
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -2476,11 +2388,11 @@
         <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2488,11 +2400,11 @@
         <v>2</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2500,13 +2412,13 @@
         <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2514,17 +2426,18 @@
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="11">
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
@@ -2535,53 +2448,51 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C12" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C3" r:id="rId8"/>
-    <hyperlink ref="C29" r:id="rId9"/>
-    <hyperlink ref="C15" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C21" r:id="rId12"/>
-    <hyperlink ref="C66" r:id="rId13"/>
-    <hyperlink ref="C63" r:id="rId14"/>
-    <hyperlink ref="C65" r:id="rId15"/>
-    <hyperlink ref="C28" r:id="rId16"/>
-    <hyperlink ref="C24" r:id="rId17"/>
-    <hyperlink ref="C18" r:id="rId18"/>
-    <hyperlink ref="C19" r:id="rId19"/>
-    <hyperlink ref="C93" r:id="rId20"/>
-    <hyperlink ref="C94" r:id="rId21"/>
-    <hyperlink ref="C95" r:id="rId22"/>
-    <hyperlink ref="C96" r:id="rId23"/>
-    <hyperlink ref="C39" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="C52" r:id="rId26"/>
-    <hyperlink ref="C49" r:id="rId27"/>
-    <hyperlink ref="C80" r:id="rId28"/>
-    <hyperlink ref="C81" r:id="rId29" display="Continious Integration Diagram"/>
-    <hyperlink ref="C42" r:id="rId30"/>
-    <hyperlink ref="C44" r:id="rId31"/>
-    <hyperlink ref="C50" r:id="rId32"/>
-    <hyperlink ref="C104" r:id="rId33"/>
-    <hyperlink ref="C103" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="C32" r:id="rId36"/>
-    <hyperlink ref="C31" r:id="rId37"/>
-    <hyperlink ref="C35" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Interviews"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/UI-UX/MyCAlerts_Personas.pdf"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/UI-UX/MyCAlerts_ActivityScenarioPlan.pdf"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/UI-UX/MyCAlerts_Personas.pdf"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/UI-UX/MyCAlerts_SystemWireflow.pdf"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C18" r:id="rId12" display="https://standards.usa.gov/"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://standards.usa.gov/"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing/508 Compliance"/>
+    <hyperlink ref="C24" r:id="rId15" display="https://standards.usa.gov/"/>
+    <hyperlink ref="C23" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/JIRA_Export.xlsx"/>
+    <hyperlink ref="C28" r:id="rId18" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
+    <hyperlink ref="C29" r:id="rId19" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/Communication"/>
+    <hyperlink ref="C31" r:id="rId20" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/Process"/>
+    <hyperlink ref="C32" r:id="rId21" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/JIRA_Export.xlsx"/>
+    <hyperlink ref="C35" r:id="rId22" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/Source Code Management.pdf"/>
+    <hyperlink ref="C39" r:id="rId23" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/Roadmap.pdf"/>
+    <hyperlink ref="C42" r:id="rId24" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/PQVP Tool List.xlsx"/>
+    <hyperlink ref="C44" r:id="rId25" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/PQVP Tool List.xlsx"/>
+    <hyperlink ref="C41" r:id="rId26"/>
+    <hyperlink ref="C49" r:id="rId27" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Team/RACI.pdf"/>
+    <hyperlink ref="C50" r:id="rId28" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Team/Teaming Agreeement.pdf"/>
+    <hyperlink ref="C52" r:id="rId29" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/Roadmap.pdf"/>
+    <hyperlink ref="C63" r:id="rId30" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/PQVP Tool List.xlsx"/>
+    <hyperlink ref="C65" r:id="rId31" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/PQVP Developer Onboarding List.pdf"/>
+    <hyperlink ref="C66" r:id="rId32" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/PQVP Tool List.xlsx"/>
+    <hyperlink ref="C80" r:id="rId33" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Testing/Unit Functional Test Log.pdf"/>
+    <hyperlink ref="C81" r:id="rId34" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/CI-CD_Approach.png"/>
+    <hyperlink ref="C93" r:id="rId35" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/Azure and New Relic Dashboard Screen Captures.pdf"/>
+    <hyperlink ref="C94" r:id="rId36" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/Azure and New Relic Dashboard Screen Captures.pdf"/>
+    <hyperlink ref="C95" r:id="rId37" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/Azure and New Relic Dashboard Screen Captures.pdf"/>
+    <hyperlink ref="C96" r:id="rId38" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Technology/Azure and New Relic Dashboard Screen Captures.pdf"/>
+    <hyperlink ref="C104" r:id="rId39" display="https://app.mycalerts.com/swagger"/>
+    <hyperlink ref="C111" r:id="rId40" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/JIRA_Export.xlsx"/>
+    <hyperlink ref="C103" r:id="rId41" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/Process/JIRA_Export.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/README_Evidence/US Digital Playbook Checklist.xlsx
+++ b/README_Evidence/US Digital Playbook Checklist.xlsx
@@ -505,9 +505,6 @@
     <t>The third party data used in our POC is passed through from open data sources such as USGS and NOAA.</t>
   </si>
   <si>
-    <t>Progress is tracked through JIRA.  Our evidence on our process is stored in GitHub.  We have a backlog story: PQPV-53 to migrate to an open instance of JIRA.</t>
-  </si>
-  <si>
     <t>We used daily stand-ups and HipChat for regular team communications.  In addition we had a war room with physical board.  At the conclusion of each sprint the team performed a Retrospective to identify process/technical improvements</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>Team list (requirement b in GitHub readme.md)</t>
+  </si>
+  <si>
+    <t>Progress is tracked through JIRA.  Our evidence on our process is stored in GitHub.  We have a backlog story: PQVP-53 to migrate to an open instance of JIRA.</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1191,7 +1193,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1301,7 +1303,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -1343,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1369,7 +1371,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1410,7 +1412,7 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1434,7 +1436,7 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1462,7 +1464,7 @@
         <v>129</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1473,7 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -1485,7 +1487,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>143</v>
@@ -1516,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1527,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -1541,10 +1543,10 @@
         <v>46</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -1555,10 +1557,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1570,7 +1572,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1593,10 +1595,10 @@
         <v>52</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1607,7 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
@@ -1644,7 +1646,7 @@
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1655,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>136</v>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1696,7 +1698,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1706,7 +1708,7 @@
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1716,7 +1718,7 @@
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,7 +1727,7 @@
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -1767,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>147</v>
@@ -1794,7 +1796,7 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1803,7 +1805,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
@@ -1817,10 +1819,10 @@
         <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1831,10 +1833,10 @@
         <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1845,10 +1847,10 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -1859,10 +1861,10 @@
         <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1873,10 +1875,10 @@
         <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1885,7 +1887,7 @@
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1</v>
@@ -1902,7 +1904,7 @@
         <v>80</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1914,7 +1916,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -1951,7 +1953,7 @@
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
@@ -1966,7 +1968,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2038,7 +2040,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2047,7 +2049,7 @@
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -2062,7 +2064,7 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2083,7 +2085,7 @@
         <v>98</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2098,7 +2100,7 @@
         <v>137</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2108,7 +2110,7 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,7 +2119,7 @@
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
@@ -2201,7 +2203,7 @@
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -2246,7 +2248,7 @@
         <v>130</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2308,7 +2310,7 @@
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2327,7 +2329,7 @@
         <v>119</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>141</v>
@@ -2341,7 +2343,7 @@
         <v>120</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>159</v>
@@ -2392,7 +2394,7 @@
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2418,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2429,10 +2431,10 @@
         <v>127</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2452,7 @@
     <mergeCell ref="A92:B92"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Interviews"/>
+    <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2" display="https://github.com/CGI-Zahid/CGI-POC/blob/master/README_Evidence/UI-UX/MyCAlerts_Personas.pdf"/>
     <hyperlink ref="C5" r:id="rId3" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/CGI-Zahid/CGI-POC/tree/master/README_Evidence/UI-UX/Usability Testing"/>
